--- a/Excel.Infrastructure/Templates/All.xlsx
+++ b/Excel.Infrastructure/Templates/All.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\Excel\Excel.Infrastructure\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjetoExcel\Excel\Excel.Infrastructure\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -364,37 +364,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
